--- a/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q15_1-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0.05403793561328401</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05419435831422746</v>
+        <v>0.05419435831422747</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.05588162973149727</v>
@@ -681,7 +681,7 @@
         <v>0.06131961362240397</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06010479370049362</v>
+        <v>0.0601047937004936</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.07152420259291684</v>
@@ -693,7 +693,7 @@
         <v>0.05729394555880667</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.05697264511876057</v>
+        <v>0.05697264511876056</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05701721522649521</v>
+        <v>0.05672519123934992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.05163704835091264</v>
+        <v>0.05221765603224147</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03434465143283696</v>
+        <v>0.03369093492171665</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03608284130485892</v>
+        <v>0.03204974272986769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02998330298002402</v>
+        <v>0.03122257031236846</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.03254478437697531</v>
+        <v>0.03285303051329914</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.03735544175025023</v>
+        <v>0.0382638809027099</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04413839833206887</v>
+        <v>0.04428051278998549</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05195013955371008</v>
+        <v>0.05319203151694715</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.04944600199305356</v>
+        <v>0.04898168010415425</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.04162086443206376</v>
+        <v>0.04123708753080402</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04332283495835901</v>
+        <v>0.04321986573342645</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.112268219501024</v>
+        <v>0.1136145034559389</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1089183526426097</v>
+        <v>0.1075107940870469</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.08306622569343992</v>
+        <v>0.08193287165725435</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08631155771279346</v>
+        <v>0.08350994562920426</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08995532200670193</v>
+        <v>0.09592695754325178</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.0902696121549082</v>
+        <v>0.09820273573021636</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.09388125031508893</v>
+        <v>0.09750474376543365</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08088976777448076</v>
+        <v>0.08232244086101947</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.09486676381250024</v>
+        <v>0.09825602790354677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.09435819475564466</v>
+        <v>0.09116127336445566</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.07739510184053658</v>
+        <v>0.07738030049645028</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07386663759558661</v>
+        <v>0.0754527905257505</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04364946581564805</v>
+        <v>0.04451489919982143</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.06013319387570175</v>
+        <v>0.06059422694043263</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03085704782520935</v>
+        <v>0.02902789281731183</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04048737558227185</v>
+        <v>0.04252231519952469</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02012294728024405</v>
+        <v>0.01895716062152121</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04800627616083946</v>
+        <v>0.0480560132096809</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04120607367203681</v>
+        <v>0.04107993068865461</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05126327142444043</v>
+        <v>0.05214138200293282</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.03527401583602836</v>
+        <v>0.03653202059004039</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06013222797831944</v>
+        <v>0.06117315039316823</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.03966549715987987</v>
+        <v>0.04123390056854258</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05641881708489269</v>
+        <v>0.05429230398086382</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1014652117551186</v>
+        <v>0.09953070994750132</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1325778555037181</v>
+        <v>0.1341700861743596</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08438939866223161</v>
+        <v>0.08591005751771576</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2265785532334402</v>
+        <v>0.2301426213678061</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0732719952300202</v>
+        <v>0.07093873091764238</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1156770535823899</v>
+        <v>0.1110249583923851</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1049994428237799</v>
+        <v>0.1049393753585799</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1087183252144362</v>
+        <v>0.1084505359191824</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07285457462682859</v>
+        <v>0.0718664126964443</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1110770553176908</v>
+        <v>0.1085834950256901</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08173080006029117</v>
+        <v>0.08378397208240844</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1589291953373425</v>
+        <v>0.1571256936923094</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.06207868347149019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08625873552576656</v>
+        <v>0.08625873552576654</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02954620316374397</v>
@@ -953,7 +953,7 @@
         <v>0.08709589266213498</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09223542929585479</v>
+        <v>0.09223542929585482</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07805081811377286</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.06826719501080637</v>
+        <v>0.06653755363728321</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08154282911249285</v>
+        <v>0.08564454398508538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0423431169277507</v>
+        <v>0.04363503272382035</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05796049483848572</v>
+        <v>0.06053289288487306</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01119359311399319</v>
+        <v>0.01144821600232491</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03643161938177728</v>
+        <v>0.03884844861670582</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04456863741730104</v>
+        <v>0.04043550780103661</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05610221309792639</v>
+        <v>0.05772583108503256</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05939246506952802</v>
+        <v>0.05914148780345998</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07695151631000804</v>
+        <v>0.07581088219450285</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.04875462973358891</v>
+        <v>0.04928748037344362</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06697305370038444</v>
+        <v>0.06778538541451548</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1229359258461604</v>
+        <v>0.1235112526859309</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1823753188646352</v>
+        <v>0.1862447462691622</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0888594998714248</v>
+        <v>0.08934456141384957</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.120865177292074</v>
+        <v>0.117462803415257</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.07118084451674447</v>
+        <v>0.06733203955587584</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1212738427667295</v>
+        <v>0.1231503435002545</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1950938434292415</v>
+        <v>0.1815966472068989</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1463791603005735</v>
+        <v>0.1420065907002924</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1042798080385916</v>
+        <v>0.1034125697755618</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.150396537082494</v>
+        <v>0.1517804806481369</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09703550821572243</v>
+        <v>0.09675318682945364</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.113177520881974</v>
+        <v>0.1165188246526758</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.0546289834626302</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.08181152466981889</v>
+        <v>0.08181152466981892</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05835975133376554</v>
+        <v>0.05869376326990079</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07452841601855552</v>
+        <v>0.07438268128725875</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04142993577740058</v>
+        <v>0.04174401866124561</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.06464322664876962</v>
+        <v>0.06428128759773999</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04519737598526073</v>
+        <v>0.04541018845986453</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04909995480947996</v>
+        <v>0.04790189804341873</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03796207425877431</v>
+        <v>0.03956129746411838</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06042845962119858</v>
+        <v>0.06037781968674765</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05795104552472773</v>
+        <v>0.05915719773903486</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.06788981196089247</v>
+        <v>0.06762661495442457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04235952532287032</v>
+        <v>0.04506815368557757</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06778153278196937</v>
+        <v>0.06630637568094419</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.09167091566244116</v>
+        <v>0.09314028154473523</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1124704463908407</v>
+        <v>0.1141960627558105</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07069372153388719</v>
+        <v>0.07039312839660462</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1178072615646449</v>
+        <v>0.1198510720983681</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08386883346588057</v>
+        <v>0.08376164243101968</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.0873509109471718</v>
+        <v>0.08724710515022681</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0868150984948869</v>
+        <v>0.08498691858067713</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1109282130552241</v>
+        <v>0.1131069189015803</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08301153796585241</v>
+        <v>0.08428162638685034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09635899664345308</v>
+        <v>0.09451575033619114</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06748010685263434</v>
+        <v>0.06887969528804264</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1029849786135883</v>
+        <v>0.1044617985646852</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.08059792286501827</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.101709327179586</v>
+        <v>0.1017093271795859</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07133097340088315</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03674211451220177</v>
+        <v>0.03559505644556014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0697710438710253</v>
+        <v>0.0722054615247949</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05662985664603154</v>
+        <v>0.05814835959378668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06539559134971824</v>
+        <v>0.06182453058406607</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05053590093446035</v>
+        <v>0.04877406469835602</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08049572263075959</v>
+        <v>0.08368693875879556</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.05076422882722516</v>
+        <v>0.05024802580308189</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08473545478043475</v>
+        <v>0.08417745154513064</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.05009859469025434</v>
+        <v>0.05002352969612379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.08762173226639852</v>
+        <v>0.08324533494144565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.05626260970812191</v>
+        <v>0.05987826264248445</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08340879624885753</v>
+        <v>0.08367991802828281</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08650437013311764</v>
+        <v>0.08748866095132071</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1590498469700987</v>
+        <v>0.155567131392936</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1099461126792447</v>
+        <v>0.1090578224379054</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2186060616564335</v>
+        <v>0.197879358490246</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1009318459197623</v>
+        <v>0.0952282685474604</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1643541201309028</v>
+        <v>0.1698949999750822</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1048333779331152</v>
+        <v>0.1049175664106568</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1434338516952315</v>
+        <v>0.1404578351599445</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.08697233039072839</v>
+        <v>0.08627548086524096</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1474407313625248</v>
+        <v>0.1457182896814592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09579042786742575</v>
+        <v>0.09625082342352689</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.155821765434328</v>
+        <v>0.1510414711738682</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.07028112268119231</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08384826141169893</v>
+        <v>0.08384826141169895</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.07329300117200312</v>
@@ -1373,7 +1373,7 @@
         <v>0.07944093499433516</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.07583217533739584</v>
+        <v>0.07583217533739582</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08535631603788628</v>
+        <v>0.08728161998728866</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.0698292707985092</v>
+        <v>0.07042551629759698</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07619968119104938</v>
+        <v>0.07294743740100498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01713040142780855</v>
+        <v>0.01732346055309425</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04408847598636877</v>
+        <v>0.04368133777552945</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08279831345486009</v>
+        <v>0.07941923622528602</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05130194476882417</v>
+        <v>0.0508596471361806</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06151339971505882</v>
+        <v>0.0591764407161998</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05666344279134833</v>
+        <v>0.05649898624402819</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08686952171145444</v>
+        <v>0.08558275117155194</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.06034174722490098</v>
+        <v>0.06230638758077284</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05659566387205313</v>
+        <v>0.05559640251534168</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2163293885318157</v>
+        <v>0.2163898815790539</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1526522079400394</v>
+        <v>0.1504559631579129</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1784540825554305</v>
+        <v>0.1744033256198103</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1000750895266201</v>
+        <v>0.09769865442961929</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.08695433295239639</v>
+        <v>0.08863728846873406</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1402127022575172</v>
+        <v>0.1382897314689847</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.102087409140721</v>
+        <v>0.101373432528751</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1154311925349651</v>
+        <v>0.1166820378286781</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.09949361549521087</v>
+        <v>0.09941800884709115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1351201394758113</v>
+        <v>0.1346231175038539</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1057105339963072</v>
+        <v>0.1051218097492834</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1031240014006494</v>
+        <v>0.1043514804871648</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.070084213519041</v>
+        <v>0.0692107466040662</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08401612873165516</v>
+        <v>0.08455858292349699</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05600611119393217</v>
+        <v>0.05527464012847839</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06700920267954449</v>
+        <v>0.06637780206589294</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05022824394505872</v>
+        <v>0.04956256537468704</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07592077868237339</v>
+        <v>0.07597082080093377</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05580256988751406</v>
+        <v>0.05600786871534356</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07433307455444509</v>
+        <v>0.07435689199211402</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06235825601090379</v>
+        <v>0.06272157445403015</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.08343562113381715</v>
+        <v>0.08378081683672929</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.05890456814441139</v>
+        <v>0.05791126738271807</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07321656401196736</v>
+        <v>0.07351449971921009</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.09270180110461902</v>
+        <v>0.09207039505046316</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1112778721572071</v>
+        <v>0.1132291160438213</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07507649090447427</v>
+        <v>0.07520284683256716</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1025205027470907</v>
+        <v>0.1026487585369293</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.07107360163232983</v>
+        <v>0.07079883321236929</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1033737543361408</v>
+        <v>0.1031087360058044</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.07931193322753033</v>
+        <v>0.08073628512540729</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.09704052886785088</v>
+        <v>0.09714319652095907</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07719451003372498</v>
+        <v>0.07877093092048623</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1038266338003447</v>
+        <v>0.103242167818633</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07355477619161356</v>
+        <v>0.07304470624224457</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09375281415050843</v>
+        <v>0.09514940449895332</v>
       </c>
     </row>
     <row r="25">
